--- a/examples/model_report/决策树组合策略挖掘.xlsx
+++ b/examples/model_report/决策树组合策略挖掘.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="280" yWindow="500" windowWidth="33600" windowHeight="21900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="组合策略汇总" sheetId="1" state="visible" r:id="rId1"/>
@@ -81,12 +81,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -350,11 +365,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,7 +374,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyAlignment="1">
@@ -392,10 +404,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyAlignment="1">
@@ -413,56 +425,65 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,10 +594,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4762500" cy="3810000"/>
+    <ext cx="4762500" cy="6667500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -598,10 +619,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4762500" cy="3810000"/>
+    <ext cx="4762500" cy="6667500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -609,31 +630,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>66</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4762500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -914,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L67"/>
+  <dimension ref="B2:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,7 +938,11 @@
       <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="n"/>
       <c r="K2" s="3" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="5" t="inlineStr">
@@ -982,1867 +982,2944 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>坏率</t>
+          <t>坏样本率</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>LIFT值</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>坏账改善</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>准确率</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>精确率</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>召回率</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>F1分数</t>
+        </is>
+      </c>
+      <c r="P4" s="6" t="inlineStr">
+        <is>
           <t>样本整体坏率</t>
-        </is>
-      </c>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>B &lt;= 0.495  &amp; 时间 &gt; 0.943</t>
+          <t>B &gt; 0.4946</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>243</v>
+        <v>2999</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.0347</v>
+        <v>0.4284</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>142</v>
+        <v>1466</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.0401</v>
+        <v>0.414</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>101</v>
+        <v>1533</v>
       </c>
       <c r="H5" s="8" t="n">
-        <v>0.0292</v>
+        <v>0.4432</v>
       </c>
       <c r="I5" s="8" t="n">
-        <v>0.4156</v>
+        <v>0.5112</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.0345</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>0.8411</v>
+        <v>0.0258</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0.4748</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; 时间 &lt;= 0.943 </t>
+          <t>(B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)</t>
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>3758</v>
+        <v>243</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.5369</v>
+        <v>0.0347</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>1933</v>
+        <v>142</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.5459000000000001</v>
+        <v>0.0401</v>
       </c>
       <c r="G6" s="9" t="n">
-        <v>1825</v>
+        <v>101</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0.5276</v>
+        <v>0.0292</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>0.4856</v>
+        <v>0.4156</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.8411</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>0.9828</v>
+        <v>-0.0057</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>0.4156</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; 时间 &lt;= 0.877 </t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &lt;= 0.9426)) &amp; (时间 &gt; 0.9294)</t>
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>2669</v>
+        <v>59</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>0.3813</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1321</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.3731</v>
+        <v>0.0054</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>1348</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>0.3897</v>
+        <v>0.0116</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>0.5051</v>
+        <v>0.678</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.372</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>1.0221</v>
+        <v>0.0032</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>B &gt; 0.495 &amp; 时间 &gt; 0.877</t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)) &amp; (A &gt; 1.5)</t>
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0.0471</v>
+        <v>0.0277</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>0.0409</v>
+        <v>0.0297</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>0.0535</v>
+        <v>0.0257</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>0.5606</v>
+        <v>0.4588</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.9284</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>1.1345</v>
+        <v>-0.002</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>0.5036</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="O8" s="10" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="P8" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; A &lt;= 8.5 </t>
+          <t>(B &gt; 0.4946) &amp; (时间 &gt; 0.8772)</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>3605</v>
+        <v>329</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>0.515</v>
+        <v>0.047</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1889</v>
+        <v>145</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.5335</v>
+        <v>0.0409</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>1716</v>
+        <v>184</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>0.4961</v>
+        <v>0.0532</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>0.476</v>
+        <v>0.5593</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.1318</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.9633</v>
+        <v>0.0065</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.5114</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>B &gt; 0.495 &amp; A &gt; 4.5</t>
+          <t>((B &gt; 0.4946) &amp; (时间 &lt;= 0.8772)) &amp; (时间 &gt; 0.8415)</t>
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>1496</v>
+        <v>115</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0.2137</v>
+        <v>0.0164</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>749</v>
+        <v>69</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>0.2115</v>
+        <v>0.0195</v>
       </c>
       <c r="G10" s="9" t="n">
-        <v>747</v>
+        <v>46</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0.216</v>
+        <v>0.0133</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>0.4993</v>
+        <v>0.4</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.8095</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>1.0105</v>
+        <v>-0.0032</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>0.5026</v>
+      </c>
+      <c r="M10" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O10" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="P10" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; A &lt;= 4.5 </t>
+          <t>((B &gt; 0.4946) &amp; (时间 &gt; 0.8772)) &amp; (时间 &gt; 0.8942)</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1503</v>
+        <v>283</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>0.2147</v>
+        <v>0.0404</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>717</v>
+        <v>134</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.2025</v>
+        <v>0.0378</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>786</v>
+        <v>149</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>0.2272</v>
+        <v>0.0431</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>0.523</v>
+        <v>0.5265</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.0655</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>1.0583</v>
+        <v>0.0028</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5265</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.0796</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>B &lt;= 0.495  &amp; A &gt; 8.5</t>
+          <t>B &gt; 0.4946</t>
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>396</v>
+        <v>2999</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>0.0566</v>
+        <v>0.4284</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>186</v>
+        <v>1466</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>0.0525</v>
+        <v>0.414</v>
       </c>
       <c r="G12" s="9" t="n">
-        <v>210</v>
+        <v>1533</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>0.0607</v>
+        <v>0.4432</v>
       </c>
       <c r="I12" s="10" t="n">
-        <v>0.5303</v>
+        <v>0.5112</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>0.4941</v>
+        <v>1.0345</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1.0732</v>
+        <v>0.0258</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="N12" s="10" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="O12" s="10" t="n">
+        <v>0.4748</v>
+      </c>
+      <c r="P12" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 8.5  &amp; A &lt;= 3.5 </t>
+          <t>(B &lt;= 0.4946) &amp; (A &gt; 8.5)</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>2772</v>
+        <v>396</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>0.396</v>
+        <v>0.0566</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1432</v>
+        <v>186</v>
       </c>
       <c r="F13" s="8" t="n">
-        <v>0.4044</v>
+        <v>0.0525</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>1340</v>
+        <v>210</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>0.3874</v>
+        <v>0.0607</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>0.4834</v>
+        <v>0.5303</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.0732</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>0.9782999999999999</v>
+        <v>0.0044</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>0.5093</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>A &lt;= 8.5  &amp; A &gt; 3.5</t>
+          <t>((B &lt;= 0.4946) &amp; (A &lt;= 8.5)) &amp; (C &gt; 0.4941)</t>
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>3526</v>
+        <v>1812</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0.5037</v>
+        <v>0.2589</v>
       </c>
       <c r="E14" s="9" t="n">
-        <v>1775</v>
+        <v>927</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>0.5013</v>
+        <v>0.2618</v>
       </c>
       <c r="G14" s="9" t="n">
-        <v>1751</v>
+        <v>885</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>0.5062</v>
+        <v>0.2559</v>
       </c>
       <c r="I14" s="10" t="n">
-        <v>0.4966</v>
+        <v>0.4884</v>
       </c>
       <c r="J14" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.9883999999999999</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>1.005</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="M14" s="10" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="N14" s="10" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="O14" s="10" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="P14" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 8.5 &amp; C &lt;= 0.494 </t>
+          <t>((B &lt;= 0.4946) &amp; (A &gt; 8.5)) &amp; (B &gt; 0.4824)</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>358</v>
+        <v>207</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>0.0511</v>
+        <v>0.0296</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>0.0491</v>
+        <v>0.0263</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>0.0532</v>
+        <v>0.033</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>0.514</v>
+        <v>0.5507</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.1145</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>1.0401</v>
+        <v>0.0035</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t>A &gt; 8.5 &amp; C &gt; 0.494</t>
-        </is>
-      </c>
-      <c r="C16" s="11" t="n">
-        <v>344</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>0.0491</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <v>160</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>0.0452</v>
-      </c>
-      <c r="G16" s="11" t="n">
-        <v>184</v>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>0.5349</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K16" s="12" t="n">
-        <v>1.0824</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (A &gt; 4.5)</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1496</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0.2137</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>749</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>747</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0.4993</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>1.0105</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>0.5056</v>
+      </c>
+      <c r="M16" s="10" t="n">
+        <v>0.4993</v>
+      </c>
+      <c r="N16" s="10" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="O16" s="10" t="n">
+        <v>0.3015</v>
+      </c>
+      <c r="P16" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &lt;= 4.5)) &amp; (A &gt; 3.5)</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>343</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>194</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>0.5123</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &gt; 4.5)) &amp; (A &gt; 5.5)</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <v>0.1701</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>581</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>0.1641</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>610</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>1.0365</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M18" s="12" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="N18" s="12" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="O18" s="12" t="n">
+        <v>0.2624</v>
+      </c>
+      <c r="P18" s="12" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>组合策略: 验证集 1</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="n"/>
-      <c r="L19" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>组合策略</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>命中数</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>命中率</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>好样本数</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>好样本占比</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>坏样本数</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>坏样本占比</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>坏率</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>坏样本率</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>LIFT值</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>坏账改善</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>准确率</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>精确率</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>召回率</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>F1分数</t>
+        </is>
+      </c>
+      <c r="P23" s="6" t="inlineStr">
         <is>
           <t>样本整体坏率</t>
         </is>
-      </c>
-      <c r="K21" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>B &lt;= 0.495  &amp; 时间 &gt; 0.943</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>96</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>0.0329</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; 时间 &lt;= 0.943 </t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>1604</v>
-      </c>
-      <c r="D23" s="10" t="n">
-        <v>0.5347</v>
-      </c>
-      <c r="E23" s="9" t="n">
-        <v>825</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>0.5435</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <v>779</v>
-      </c>
-      <c r="H23" s="10" t="n">
-        <v>0.5256</v>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="J23" s="10" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>0.9831</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; 时间 &lt;= 0.877 </t>
+          <t>B &gt; 0.4946</t>
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>1146</v>
+        <v>1300</v>
       </c>
       <c r="D24" s="8" t="n">
-        <v>0.382</v>
+        <v>0.4333</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="F24" s="8" t="n">
-        <v>0.3755</v>
+        <v>0.4236</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="H24" s="8" t="n">
-        <v>0.3887</v>
+        <v>0.4433</v>
       </c>
       <c r="I24" s="8" t="n">
-        <v>0.5026</v>
+        <v>0.5054</v>
       </c>
       <c r="J24" s="8" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.5107</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.5054</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4433</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4723</v>
+      </c>
+      <c r="P24" s="8" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>1.0174</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>B &gt; 0.495 &amp; 时间 &gt; 0.877</t>
+          <t>(B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)</t>
         </is>
       </c>
       <c r="C25" s="9" t="n">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.0513</v>
+        <v>0.0327</v>
       </c>
       <c r="E25" s="9" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.0481</v>
+        <v>0.0329</v>
       </c>
       <c r="G25" s="9" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>0.0547</v>
+        <v>0.0324</v>
       </c>
       <c r="I25" s="10" t="n">
-        <v>0.526</v>
+        <v>0.4898</v>
       </c>
       <c r="J25" s="10" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="L25" s="10" t="n">
+        <v>0.5053</v>
+      </c>
+      <c r="M25" s="10" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="N25" s="10" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="O25" s="10" t="n">
+        <v>0.0608</v>
+      </c>
+      <c r="P25" s="10" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K25" s="10" t="n">
-        <v>1.0647</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; A &lt;= 8.5 </t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &lt;= 0.9426)) &amp; (时间 &gt; 0.9294)</t>
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>1535</v>
+        <v>29</v>
       </c>
       <c r="D26" s="8" t="n">
-        <v>0.5117</v>
+        <v>0.0097</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>791</v>
+        <v>16</v>
       </c>
       <c r="F26" s="8" t="n">
-        <v>0.5211</v>
+        <v>0.0105</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>744</v>
+        <v>13</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>0.502</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="I26" s="8" t="n">
-        <v>0.4847</v>
+        <v>0.4483</v>
       </c>
       <c r="J26" s="8" t="n">
+        <v>0.9074</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="N26" s="8" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="P26" s="8" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>0.9812</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>B &gt; 0.495 &amp; A &gt; 4.5</t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)) &amp; (A &gt; 1.5)</t>
         </is>
       </c>
       <c r="C27" s="9" t="n">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>0.2057</v>
+        <v>0.0243</v>
       </c>
       <c r="E27" s="9" t="n">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>0.2016</v>
+        <v>0.027</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="H27" s="10" t="n">
-        <v>0.2099</v>
+        <v>0.0216</v>
       </c>
       <c r="I27" s="10" t="n">
-        <v>0.5041</v>
+        <v>0.4384</v>
       </c>
       <c r="J27" s="10" t="n">
+        <v>0.8874</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>-0.0028</v>
+      </c>
+      <c r="L27" s="10" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="M27" s="10" t="n">
+        <v>0.4384</v>
+      </c>
+      <c r="N27" s="10" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="O27" s="10" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="P27" s="10" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K27" s="10" t="n">
-        <v>1.0203</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; A &lt;= 4.5 </t>
+          <t>(B &gt; 0.4946) &amp; (时间 &gt; 0.8772)</t>
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>683</v>
+        <v>152</v>
       </c>
       <c r="D28" s="8" t="n">
-        <v>0.2277</v>
+        <v>0.0507</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="F28" s="8" t="n">
-        <v>0.222</v>
+        <v>0.0474</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="H28" s="8" t="n">
-        <v>0.2335</v>
+        <v>0.054</v>
       </c>
       <c r="I28" s="8" t="n">
-        <v>0.5066000000000001</v>
+        <v>0.5263</v>
       </c>
       <c r="J28" s="8" t="n">
+        <v>1.0654</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>0.5087</v>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v>0.5263</v>
+      </c>
+      <c r="N28" s="8" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="P28" s="8" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>1.0255</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>B &lt;= 0.495  &amp; A &gt; 8.5</t>
+          <t>((B &gt; 0.4946) &amp; (时间 &lt;= 0.8772)) &amp; (时间 &gt; 0.8415)</t>
         </is>
       </c>
       <c r="C29" s="9" t="n">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>0.055</v>
+        <v>0.014</v>
       </c>
       <c r="E29" s="9" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>0.0553</v>
+        <v>0.0112</v>
       </c>
       <c r="G29" s="9" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>0.0547</v>
+        <v>0.0169</v>
       </c>
       <c r="I29" s="10" t="n">
-        <v>0.4909</v>
+        <v>0.5952</v>
       </c>
       <c r="J29" s="10" t="n">
+        <v>1.2049</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="L29" s="10" t="n">
+        <v>0.5087</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <v>0.5952</v>
+      </c>
+      <c r="N29" s="10" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="O29" s="10" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="P29" s="10" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K29" s="10" t="n">
-        <v>0.9937</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 8.5  &amp; A &lt;= 3.5 </t>
+          <t>((B &gt; 0.4946) &amp; (时间 &gt; 0.8772)) &amp; (时间 &gt; 0.8942)</t>
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>1214</v>
+        <v>128</v>
       </c>
       <c r="D30" s="8" t="n">
-        <v>0.4047</v>
+        <v>0.0427</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>615</v>
+        <v>58</v>
       </c>
       <c r="F30" s="8" t="n">
-        <v>0.4051</v>
+        <v>0.0382</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>599</v>
+        <v>70</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>0.4042</v>
+        <v>0.0472</v>
       </c>
       <c r="I30" s="8" t="n">
-        <v>0.4934</v>
+        <v>0.5469000000000001</v>
       </c>
       <c r="J30" s="8" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v>0.5469000000000001</v>
+      </c>
+      <c r="N30" s="8" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="P30" s="8" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>0.9988</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>A &lt;= 8.5  &amp; A &gt; 3.5</t>
+          <t>(B &lt;= 0.4946) &amp; (A &gt; 8.5)</t>
         </is>
       </c>
       <c r="C31" s="9" t="n">
-        <v>1487</v>
+        <v>165</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>0.4957</v>
+        <v>0.055</v>
       </c>
       <c r="E31" s="9" t="n">
-        <v>744</v>
+        <v>84</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>0.4901</v>
+        <v>0.0553</v>
       </c>
       <c r="G31" s="9" t="n">
-        <v>743</v>
+        <v>81</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>0.5013</v>
+        <v>0.0547</v>
       </c>
       <c r="I31" s="10" t="n">
-        <v>0.4997</v>
+        <v>0.4909</v>
       </c>
       <c r="J31" s="10" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="L31" s="10" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="M31" s="10" t="n">
+        <v>0.4909</v>
+      </c>
+      <c r="N31" s="10" t="n">
+        <v>0.0547</v>
+      </c>
+      <c r="O31" s="10" t="n">
+        <v>0.0984</v>
+      </c>
+      <c r="P31" s="10" t="n">
         <v>0.494</v>
-      </c>
-      <c r="K31" s="10" t="n">
-        <v>1.0115</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 8.5 &amp; C &lt;= 0.494 </t>
+          <t>((B &lt;= 0.4946) &amp; (A &lt;= 8.5)) &amp; (C &gt; 0.4941)</t>
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>147</v>
+        <v>760</v>
       </c>
       <c r="D32" s="8" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>407</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>0.2681</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>353</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v>0.2382</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>0.9402</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.0203</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="M32" s="8" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="N32" s="8" t="n">
+        <v>0.2382</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>0.3149</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &gt; 8.5)) &amp; (B &gt; 0.4824)</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>0.0264</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>0.5238</v>
+      </c>
+      <c r="J33" s="10" t="n">
+        <v>1.0603</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="L33" s="10" t="n">
+        <v>0.5073</v>
+      </c>
+      <c r="M33" s="10" t="n">
+        <v>0.5238</v>
+      </c>
+      <c r="N33" s="10" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="O33" s="10" t="n">
+        <v>0.0562</v>
+      </c>
+      <c r="P33" s="10" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (A &gt; 4.5)</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>617</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>0.2057</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>306</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <v>311</v>
+      </c>
+      <c r="H34" s="8" t="n">
+        <v>0.2099</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>1.0203</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <v>0.5077</v>
+      </c>
+      <c r="M34" s="8" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="N34" s="8" t="n">
+        <v>0.2099</v>
+      </c>
+      <c r="O34" s="8" t="n">
+        <v>0.2963</v>
+      </c>
+      <c r="P34" s="8" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &lt;= 4.5)) &amp; (A &gt; 3.5)</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>132</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="H35" s="10" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="I35" s="10" t="n">
+        <v>0.5227000000000001</v>
+      </c>
+      <c r="J35" s="10" t="n">
+        <v>1.0582</v>
+      </c>
+      <c r="K35" s="10" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="L35" s="10" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="M35" s="10" t="n">
+        <v>0.5227000000000001</v>
+      </c>
+      <c r="N35" s="10" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="O35" s="10" t="n">
+        <v>0.08550000000000001</v>
+      </c>
+      <c r="P35" s="10" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="13" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &gt; 4.5)) &amp; (A &gt; 5.5)</t>
+        </is>
+      </c>
+      <c r="C36" s="13" t="n">
+        <v>480</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E36" s="13" t="n">
+        <v>243</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>0.1601</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>237</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>0.1599</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="K36" s="14" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="L36" s="14" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="M36" s="14" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="N36" s="14" t="n">
+        <v>0.1599</v>
+      </c>
+      <c r="O36" s="14" t="n">
+        <v>0.2416</v>
+      </c>
+      <c r="P36" s="14" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>组合策略: 验证集 2</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="n"/>
+      <c r="N39" s="3" t="n"/>
+      <c r="O39" s="3" t="n"/>
+      <c r="P39" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>命中数</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>命中率</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>好样本数</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>好样本占比</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>坏样本数</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>坏样本占比</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>坏样本率</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>LIFT值</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>坏账改善</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>准确率</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>精确率</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>召回率</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>F1分数</t>
+        </is>
+      </c>
+      <c r="P41" s="6" t="inlineStr">
+        <is>
+          <t>样本整体坏率</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>B &gt; 0.4946</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>1466</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>1533</v>
+      </c>
+      <c r="H42" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="I42" s="8" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="J42" s="8" t="n">
+        <v>1.0345</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="L42" s="8" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="M42" s="8" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="N42" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="O42" s="8" t="n">
+        <v>0.4748</v>
+      </c>
+      <c r="P42" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>(B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>243</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>142</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="H43" s="10" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="I43" s="10" t="n">
+        <v>0.4156</v>
+      </c>
+      <c r="J43" s="10" t="n">
+        <v>0.8411</v>
+      </c>
+      <c r="K43" s="10" t="n">
+        <v>-0.0057</v>
+      </c>
+      <c r="L43" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="10" t="n">
+        <v>0.4156</v>
+      </c>
+      <c r="N43" s="10" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="O43" s="10" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="P43" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (时间 &lt;= 0.9426)) &amp; (时间 &gt; 0.9294)</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H44" s="8" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="P44" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)) &amp; (A &gt; 1.5)</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>194</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="H45" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="I45" s="10" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="J45" s="10" t="n">
+        <v>0.9284</v>
+      </c>
+      <c r="K45" s="10" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L45" s="10" t="n">
+        <v>0.5036</v>
+      </c>
+      <c r="M45" s="10" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="N45" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="O45" s="10" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="P45" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (时间 &gt; 0.8772)</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>329</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>0.0409</v>
+      </c>
+      <c r="G46" s="7" t="n">
+        <v>184</v>
+      </c>
+      <c r="H46" s="8" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>1.1318</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="L46" s="8" t="n">
+        <v>0.5114</v>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="N46" s="8" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="P46" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (时间 &lt;= 0.8772)) &amp; (时间 &gt; 0.8415)</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>115</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="H47" s="10" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="I47" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J47" s="10" t="n">
+        <v>0.8095</v>
+      </c>
+      <c r="K47" s="10" t="n">
+        <v>-0.0032</v>
+      </c>
+      <c r="L47" s="10" t="n">
+        <v>0.5026</v>
+      </c>
+      <c r="M47" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N47" s="10" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O47" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="P47" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (时间 &gt; 0.8772)) &amp; (时间 &gt; 0.8942)</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>283</v>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>134</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>0.0378</v>
+      </c>
+      <c r="G48" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="H48" s="8" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>0.5265</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>1.0655</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="M48" s="8" t="n">
+        <v>0.5265</v>
+      </c>
+      <c r="N48" s="8" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="O48" s="8" t="n">
+        <v>0.0796</v>
+      </c>
+      <c r="P48" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>(B &lt;= 0.4946) &amp; (A &gt; 8.5)</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>396</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>186</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="H49" s="10" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="I49" s="10" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="J49" s="10" t="n">
+        <v>1.0732</v>
+      </c>
+      <c r="K49" s="10" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="L49" s="10" t="n">
+        <v>0.5093</v>
+      </c>
+      <c r="M49" s="10" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="N49" s="10" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="O49" s="10" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="P49" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &lt;= 8.5)) &amp; (C &gt; 0.4941)</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D50" s="8" t="n">
+        <v>0.2589</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>927</v>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>0.2618</v>
+      </c>
+      <c r="G50" s="7" t="n">
+        <v>885</v>
+      </c>
+      <c r="H50" s="8" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="L50" s="8" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="M50" s="8" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="N50" s="8" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="O50" s="8" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="P50" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &gt; 8.5)) &amp; (B &gt; 0.4824)</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>114</v>
+      </c>
+      <c r="H51" s="10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I51" s="10" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="J51" s="10" t="n">
+        <v>1.1145</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="L51" s="10" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="M51" s="10" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="N51" s="10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O51" s="10" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="P51" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (A &gt; 4.5)</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>1496</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>0.2137</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>749</v>
+      </c>
+      <c r="F52" s="8" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="G52" s="7" t="n">
+        <v>747</v>
+      </c>
+      <c r="H52" s="8" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.4993</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>1.0105</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v>0.5056</v>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v>0.4993</v>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>0.3015</v>
+      </c>
+      <c r="P52" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="9" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &lt;= 4.5)) &amp; (A &gt; 3.5)</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>343</v>
+      </c>
+      <c r="D53" s="10" t="n">
         <v>0.049</v>
       </c>
-      <c r="E32" s="7" t="n">
-        <v>81</v>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>0.0534</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v>66</v>
-      </c>
-      <c r="H32" s="8" t="n">
-        <v>0.0445</v>
-      </c>
-      <c r="I32" s="8" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>0.9089</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="11" t="inlineStr">
-        <is>
-          <t>A &gt; 8.5 &amp; C &gt; 0.494</t>
-        </is>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>152</v>
-      </c>
-      <c r="D33" s="12" t="n">
-        <v>0.0507</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>78</v>
-      </c>
-      <c r="F33" s="12" t="n">
-        <v>0.0514</v>
-      </c>
-      <c r="G33" s="11" t="n">
-        <v>74</v>
-      </c>
-      <c r="H33" s="12" t="n">
-        <v>0.0499</v>
-      </c>
-      <c r="I33" s="12" t="n">
-        <v>0.4868</v>
-      </c>
-      <c r="J33" s="12" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="K33" s="12" t="n">
-        <v>0.9855</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>组合策略: 验证集 2</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="n"/>
-      <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="n"/>
-      <c r="L36" s="4" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="5" t="inlineStr">
+      <c r="E53" s="9" t="n">
+        <v>149</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>194</v>
+      </c>
+      <c r="H53" s="10" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="I53" s="10" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="J53" s="10" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="K53" s="10" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="L53" s="10" t="n">
+        <v>0.5123</v>
+      </c>
+      <c r="M53" s="10" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="N53" s="10" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="O53" s="10" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="P53" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="13" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &gt; 4.5)) &amp; (A &gt; 5.5)</t>
+        </is>
+      </c>
+      <c r="C54" s="13" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>0.1701</v>
+      </c>
+      <c r="E54" s="13" t="n">
+        <v>581</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <v>0.1641</v>
+      </c>
+      <c r="G54" s="13" t="n">
+        <v>610</v>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="I54" s="14" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="J54" s="14" t="n">
+        <v>1.0365</v>
+      </c>
+      <c r="K54" s="14" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="L54" s="14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M54" s="14" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="N54" s="14" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="O54" s="14" t="n">
+        <v>0.2624</v>
+      </c>
+      <c r="P54" s="14" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>组合策略: 验证集 3</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+      <c r="N57" s="3" t="n"/>
+      <c r="O57" s="3" t="n"/>
+      <c r="P57" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>组合策略</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>命中数</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>命中率</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>好样本数</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>好样本占比</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>坏样本数</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>坏样本占比</t>
         </is>
       </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>坏率</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>坏样本率</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>LIFT值</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>坏账改善</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>准确率</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>精确率</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>召回率</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>F1分数</t>
+        </is>
+      </c>
+      <c r="P59" s="6" t="inlineStr">
         <is>
           <t>样本整体坏率</t>
         </is>
-      </c>
-      <c r="K38" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t>B &lt;= 0.495  &amp; 时间 &gt; 0.943</t>
-        </is>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>242</v>
-      </c>
-      <c r="D39" s="8" t="n">
-        <v>0.0346</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>141</v>
-      </c>
-      <c r="F39" s="8" t="n">
-        <v>0.0398</v>
-      </c>
-      <c r="G39" s="7" t="n">
-        <v>101</v>
-      </c>
-      <c r="H39" s="8" t="n">
-        <v>0.0292</v>
-      </c>
-      <c r="I39" s="8" t="n">
-        <v>0.4174</v>
-      </c>
-      <c r="J39" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>0.8446</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; 时间 &lt;= 0.943 </t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="n">
-        <v>3759</v>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>1934</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>0.5462</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>1825</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <v>0.5276</v>
-      </c>
-      <c r="I40" s="10" t="n">
-        <v>0.4855</v>
-      </c>
-      <c r="J40" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K40" s="10" t="n">
-        <v>0.9825</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; 时间 &lt;= 0.877 </t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="n">
-        <v>2668</v>
-      </c>
-      <c r="D41" s="8" t="n">
-        <v>0.3811</v>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>1320</v>
-      </c>
-      <c r="F41" s="8" t="n">
-        <v>0.3728</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>1348</v>
-      </c>
-      <c r="H41" s="8" t="n">
-        <v>0.3897</v>
-      </c>
-      <c r="I41" s="8" t="n">
-        <v>0.5052</v>
-      </c>
-      <c r="J41" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>1.0225</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>B &gt; 0.495 &amp; 时间 &gt; 0.877</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="n">
-        <v>331</v>
-      </c>
-      <c r="D42" s="10" t="n">
-        <v>0.0473</v>
-      </c>
-      <c r="E42" s="9" t="n">
-        <v>146</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>0.0412</v>
-      </c>
-      <c r="G42" s="9" t="n">
-        <v>185</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <v>0.0535</v>
-      </c>
-      <c r="I42" s="10" t="n">
-        <v>0.5589</v>
-      </c>
-      <c r="J42" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K42" s="10" t="n">
-        <v>1.1311</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; A &lt;= 8.5 </t>
-        </is>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>3605</v>
-      </c>
-      <c r="D43" s="8" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>1889</v>
-      </c>
-      <c r="F43" s="8" t="n">
-        <v>0.5335</v>
-      </c>
-      <c r="G43" s="7" t="n">
-        <v>1716</v>
-      </c>
-      <c r="H43" s="8" t="n">
-        <v>0.4961</v>
-      </c>
-      <c r="I43" s="8" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="J43" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>0.9633</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>B &gt; 0.495 &amp; A &gt; 4.5</t>
-        </is>
-      </c>
-      <c r="C44" s="9" t="n">
-        <v>1496</v>
-      </c>
-      <c r="D44" s="10" t="n">
-        <v>0.2137</v>
-      </c>
-      <c r="E44" s="9" t="n">
-        <v>749</v>
-      </c>
-      <c r="F44" s="10" t="n">
-        <v>0.2115</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <v>747</v>
-      </c>
-      <c r="H44" s="10" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="I44" s="10" t="n">
-        <v>0.4993</v>
-      </c>
-      <c r="J44" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K44" s="10" t="n">
-        <v>1.0105</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; A &lt;= 4.5 </t>
-        </is>
-      </c>
-      <c r="C45" s="7" t="n">
-        <v>1503</v>
-      </c>
-      <c r="D45" s="8" t="n">
-        <v>0.2147</v>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>717</v>
-      </c>
-      <c r="F45" s="8" t="n">
-        <v>0.2025</v>
-      </c>
-      <c r="G45" s="7" t="n">
-        <v>786</v>
-      </c>
-      <c r="H45" s="8" t="n">
-        <v>0.2272</v>
-      </c>
-      <c r="I45" s="8" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="J45" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K45" s="8" t="n">
-        <v>1.0583</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>B &lt;= 0.495  &amp; A &gt; 8.5</t>
-        </is>
-      </c>
-      <c r="C46" s="9" t="n">
-        <v>396</v>
-      </c>
-      <c r="D46" s="10" t="n">
-        <v>0.0566</v>
-      </c>
-      <c r="E46" s="9" t="n">
-        <v>186</v>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>0.0525</v>
-      </c>
-      <c r="G46" s="9" t="n">
-        <v>210</v>
-      </c>
-      <c r="H46" s="10" t="n">
-        <v>0.0607</v>
-      </c>
-      <c r="I46" s="10" t="n">
-        <v>0.5303</v>
-      </c>
-      <c r="J46" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K46" s="10" t="n">
-        <v>1.0732</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;= 8.5  &amp; A &lt;= 3.5 </t>
-        </is>
-      </c>
-      <c r="C47" s="7" t="n">
-        <v>2772</v>
-      </c>
-      <c r="D47" s="8" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="E47" s="7" t="n">
-        <v>1432</v>
-      </c>
-      <c r="F47" s="8" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="G47" s="7" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H47" s="8" t="n">
-        <v>0.3874</v>
-      </c>
-      <c r="I47" s="8" t="n">
-        <v>0.4834</v>
-      </c>
-      <c r="J47" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>0.9782999999999999</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>A &lt;= 8.5  &amp; A &gt; 3.5</t>
-        </is>
-      </c>
-      <c r="C48" s="9" t="n">
-        <v>3526</v>
-      </c>
-      <c r="D48" s="10" t="n">
-        <v>0.5037</v>
-      </c>
-      <c r="E48" s="9" t="n">
-        <v>1775</v>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>0.5013</v>
-      </c>
-      <c r="G48" s="9" t="n">
-        <v>1751</v>
-      </c>
-      <c r="H48" s="10" t="n">
-        <v>0.5062</v>
-      </c>
-      <c r="I48" s="10" t="n">
-        <v>0.4966</v>
-      </c>
-      <c r="J48" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K48" s="10" t="n">
-        <v>1.005</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &gt; 8.5 &amp; C &lt;= 0.494 </t>
-        </is>
-      </c>
-      <c r="C49" s="7" t="n">
-        <v>358</v>
-      </c>
-      <c r="D49" s="8" t="n">
-        <v>0.0511</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>174</v>
-      </c>
-      <c r="F49" s="8" t="n">
-        <v>0.0491</v>
-      </c>
-      <c r="G49" s="7" t="n">
-        <v>184</v>
-      </c>
-      <c r="H49" s="8" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="I49" s="8" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="J49" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>1.0401</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="11" t="inlineStr">
-        <is>
-          <t>A &gt; 8.5 &amp; C &gt; 0.494</t>
-        </is>
-      </c>
-      <c r="C50" s="11" t="n">
-        <v>344</v>
-      </c>
-      <c r="D50" s="12" t="n">
-        <v>0.0491</v>
-      </c>
-      <c r="E50" s="11" t="n">
-        <v>160</v>
-      </c>
-      <c r="F50" s="12" t="n">
-        <v>0.0452</v>
-      </c>
-      <c r="G50" s="11" t="n">
-        <v>184</v>
-      </c>
-      <c r="H50" s="12" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="I50" s="12" t="n">
-        <v>0.5349</v>
-      </c>
-      <c r="J50" s="12" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K50" s="12" t="n">
-        <v>1.0824</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>组合策略: 验证集 3</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="n"/>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="n"/>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="4" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>命中数</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>命中率</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>好样本数</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>好样本占比</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>坏样本数</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>坏样本占比</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>坏率</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>样本整体坏率</t>
-        </is>
-      </c>
-      <c r="K55" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="7" t="inlineStr">
-        <is>
-          <t>B &lt;= 0.495  &amp; 时间 &gt; 0.943</t>
-        </is>
-      </c>
-      <c r="C56" s="7" t="n">
-        <v>338</v>
-      </c>
-      <c r="D56" s="8" t="n">
-        <v>0.0338</v>
-      </c>
-      <c r="E56" s="7" t="n">
-        <v>191</v>
-      </c>
-      <c r="F56" s="8" t="n">
-        <v>0.0378</v>
-      </c>
-      <c r="G56" s="7" t="n">
-        <v>147</v>
-      </c>
-      <c r="H56" s="8" t="n">
-        <v>0.0298</v>
-      </c>
-      <c r="I56" s="8" t="n">
-        <v>0.4349</v>
-      </c>
-      <c r="J56" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>0.8802</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; 时间 &lt;= 0.943 </t>
-        </is>
-      </c>
-      <c r="C57" s="9" t="n">
-        <v>5363</v>
-      </c>
-      <c r="D57" s="10" t="n">
-        <v>0.5363</v>
-      </c>
-      <c r="E57" s="9" t="n">
-        <v>2759</v>
-      </c>
-      <c r="F57" s="10" t="n">
-        <v>0.5454</v>
-      </c>
-      <c r="G57" s="9" t="n">
-        <v>2604</v>
-      </c>
-      <c r="H57" s="10" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="I57" s="10" t="n">
-        <v>0.4855</v>
-      </c>
-      <c r="J57" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K57" s="10" t="n">
-        <v>0.9827</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; 时间 &lt;= 0.877 </t>
-        </is>
-      </c>
-      <c r="C58" s="7" t="n">
-        <v>3814</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>0.3814</v>
-      </c>
-      <c r="E58" s="7" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F58" s="8" t="n">
-        <v>0.3736</v>
-      </c>
-      <c r="G58" s="7" t="n">
-        <v>1924</v>
-      </c>
-      <c r="H58" s="8" t="n">
-        <v>0.3894</v>
-      </c>
-      <c r="I58" s="8" t="n">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="J58" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>1.021</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>B &gt; 0.495 &amp; 时间 &gt; 0.877</t>
-        </is>
-      </c>
-      <c r="C59" s="9" t="n">
-        <v>485</v>
-      </c>
-      <c r="D59" s="10" t="n">
-        <v>0.0485</v>
-      </c>
-      <c r="E59" s="9" t="n">
-        <v>219</v>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>0.0433</v>
-      </c>
-      <c r="G59" s="9" t="n">
-        <v>266</v>
-      </c>
-      <c r="H59" s="10" t="n">
-        <v>0.0538</v>
-      </c>
-      <c r="I59" s="10" t="n">
-        <v>0.5485</v>
-      </c>
-      <c r="J59" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K59" s="10" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; A &lt;= 8.5 </t>
+          <t>B &gt; 0.4946</t>
         </is>
       </c>
       <c r="C60" s="7" t="n">
-        <v>5140</v>
+        <v>4299</v>
       </c>
       <c r="D60" s="8" t="n">
+        <v>0.4299</v>
+      </c>
+      <c r="E60" s="7" t="n">
+        <v>2109</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>0.4169</v>
+      </c>
+      <c r="G60" s="7" t="n">
+        <v>2190</v>
+      </c>
+      <c r="H60" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="J60" s="8" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="L60" s="8" t="n">
         <v>0.514</v>
       </c>
-      <c r="E60" s="7" t="n">
-        <v>2680</v>
-      </c>
-      <c r="F60" s="8" t="n">
-        <v>0.5296999999999999</v>
-      </c>
-      <c r="G60" s="7" t="n">
-        <v>2460</v>
-      </c>
-      <c r="H60" s="8" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="I60" s="8" t="n">
-        <v>0.4786</v>
-      </c>
-      <c r="J60" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>0.9686</v>
+      <c r="M60" s="8" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="N60" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="O60" s="8" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="P60" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>B &gt; 0.495 &amp; A &gt; 4.5</t>
+          <t>(B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)</t>
         </is>
       </c>
       <c r="C61" s="9" t="n">
-        <v>2113</v>
+        <v>341</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>0.2113</v>
+        <v>0.0341</v>
       </c>
       <c r="E61" s="9" t="n">
-        <v>1055</v>
+        <v>192</v>
       </c>
       <c r="F61" s="10" t="n">
-        <v>0.2085</v>
+        <v>0.038</v>
       </c>
       <c r="G61" s="9" t="n">
-        <v>1058</v>
+        <v>149</v>
       </c>
       <c r="H61" s="10" t="n">
-        <v>0.2141</v>
+        <v>0.0302</v>
       </c>
       <c r="I61" s="10" t="n">
-        <v>0.5007</v>
+        <v>0.437</v>
       </c>
       <c r="J61" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.8843</v>
       </c>
       <c r="K61" s="10" t="n">
-        <v>1.0134</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="L61" s="10" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="M61" s="10" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="N61" s="10" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="O61" s="10" t="n">
+        <v>0.0564</v>
+      </c>
+      <c r="P61" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; A &lt;= 4.5 </t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &lt;= 0.9426)) &amp; (时间 &gt; 0.9294)</t>
         </is>
       </c>
       <c r="C62" s="7" t="n">
-        <v>2186</v>
+        <v>88</v>
       </c>
       <c r="D62" s="8" t="n">
-        <v>0.2186</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>1054</v>
+        <v>35</v>
       </c>
       <c r="F62" s="8" t="n">
-        <v>0.2083</v>
+        <v>0.0069</v>
       </c>
       <c r="G62" s="7" t="n">
-        <v>1132</v>
+        <v>53</v>
       </c>
       <c r="H62" s="8" t="n">
-        <v>0.2291</v>
+        <v>0.0107</v>
       </c>
       <c r="I62" s="8" t="n">
-        <v>0.5178</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="J62" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.2189</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>1.048</v>
+        <v>0.0019</v>
+      </c>
+      <c r="L62" s="8" t="n">
+        <v>0.5077</v>
+      </c>
+      <c r="M62" s="8" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="N62" s="8" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="O62" s="8" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="P62" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>B &lt;= 0.495  &amp; A &gt; 8.5</t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)) &amp; (A &gt; 1.5)</t>
         </is>
       </c>
       <c r="C63" s="9" t="n">
-        <v>561</v>
+        <v>267</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>0.0561</v>
+        <v>0.0267</v>
       </c>
       <c r="E63" s="9" t="n">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>0.0534</v>
+        <v>0.0289</v>
       </c>
       <c r="G63" s="9" t="n">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="H63" s="10" t="n">
-        <v>0.0589</v>
+        <v>0.0245</v>
       </c>
       <c r="I63" s="10" t="n">
-        <v>0.5187</v>
+        <v>0.4532</v>
       </c>
       <c r="J63" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.9172</v>
       </c>
       <c r="K63" s="10" t="n">
-        <v>1.0498</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="L63" s="10" t="n">
+        <v>0.5034</v>
+      </c>
+      <c r="M63" s="10" t="n">
+        <v>0.4532</v>
+      </c>
+      <c r="N63" s="10" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="O63" s="10" t="n">
+        <v>0.0465</v>
+      </c>
+      <c r="P63" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 8.5  &amp; A &lt;= 3.5 </t>
+          <t>(B &gt; 0.4946) &amp; (时间 &gt; 0.8772)</t>
         </is>
       </c>
       <c r="C64" s="7" t="n">
-        <v>3986</v>
+        <v>481</v>
       </c>
       <c r="D64" s="8" t="n">
-        <v>0.3986</v>
+        <v>0.0481</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>2047</v>
+        <v>217</v>
       </c>
       <c r="F64" s="8" t="n">
-        <v>0.4046</v>
+        <v>0.0429</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>1939</v>
+        <v>264</v>
       </c>
       <c r="H64" s="8" t="n">
-        <v>0.3924</v>
+        <v>0.0534</v>
       </c>
       <c r="I64" s="8" t="n">
-        <v>0.4865</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="J64" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.1108</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>0.9845</v>
+        <v>0.0056</v>
+      </c>
+      <c r="L64" s="8" t="n">
+        <v>0.5106000000000001</v>
+      </c>
+      <c r="M64" s="8" t="n">
+        <v>0.5489000000000001</v>
+      </c>
+      <c r="N64" s="8" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="O64" s="8" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="P64" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>A &lt;= 8.5  &amp; A &gt; 3.5</t>
+          <t>((B &gt; 0.4946) &amp; (时间 &lt;= 0.8772)) &amp; (时间 &gt; 0.8415)</t>
         </is>
       </c>
       <c r="C65" s="9" t="n">
-        <v>5013</v>
+        <v>157</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>0.5013</v>
+        <v>0.0157</v>
       </c>
       <c r="E65" s="9" t="n">
-        <v>2519</v>
+        <v>86</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>0.4979</v>
+        <v>0.017</v>
       </c>
       <c r="G65" s="9" t="n">
-        <v>2494</v>
+        <v>71</v>
       </c>
       <c r="H65" s="10" t="n">
-        <v>0.5048</v>
+        <v>0.0144</v>
       </c>
       <c r="I65" s="10" t="n">
-        <v>0.4975</v>
+        <v>0.4522</v>
       </c>
       <c r="J65" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.9153</v>
       </c>
       <c r="K65" s="10" t="n">
-        <v>1.0069</v>
+        <v>-0.0014</v>
+      </c>
+      <c r="L65" s="10" t="n">
+        <v>0.5044</v>
+      </c>
+      <c r="M65" s="10" t="n">
+        <v>0.4522</v>
+      </c>
+      <c r="N65" s="10" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="O65" s="10" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="P65" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 8.5 &amp; C &lt;= 0.494 </t>
+          <t>((B &gt; 0.4946) &amp; (时间 &gt; 0.8772)) &amp; (时间 &gt; 0.8942)</t>
         </is>
       </c>
       <c r="C66" s="7" t="n">
-        <v>505</v>
+        <v>411</v>
       </c>
       <c r="D66" s="8" t="n">
-        <v>0.0505</v>
+        <v>0.0411</v>
       </c>
       <c r="E66" s="7" t="n">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="F66" s="8" t="n">
-        <v>0.0504</v>
+        <v>0.038</v>
       </c>
       <c r="G66" s="7" t="n">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="H66" s="8" t="n">
-        <v>0.0506</v>
+        <v>0.0443</v>
       </c>
       <c r="I66" s="8" t="n">
-        <v>0.495</v>
+        <v>0.5328000000000001</v>
       </c>
       <c r="J66" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.0784</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>1.0019</v>
+        <v>0.0034</v>
+      </c>
+      <c r="L66" s="8" t="n">
+        <v>0.5086000000000001</v>
+      </c>
+      <c r="M66" s="8" t="n">
+        <v>0.5328000000000001</v>
+      </c>
+      <c r="N66" s="8" t="n">
+        <v>0.0443</v>
+      </c>
+      <c r="O66" s="8" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="P66" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="11" t="inlineStr">
-        <is>
-          <t>A &gt; 8.5 &amp; C &gt; 0.494</t>
-        </is>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>496</v>
-      </c>
-      <c r="D67" s="12" t="n">
-        <v>0.0496</v>
-      </c>
-      <c r="E67" s="11" t="n">
-        <v>238</v>
-      </c>
-      <c r="F67" s="12" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="G67" s="11" t="n">
-        <v>258</v>
-      </c>
-      <c r="H67" s="12" t="n">
-        <v>0.0522</v>
-      </c>
-      <c r="I67" s="12" t="n">
-        <v>0.5202</v>
-      </c>
-      <c r="J67" s="12" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K67" s="12" t="n">
-        <v>1.0527</v>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>(B &lt;= 0.4946) &amp; (A &gt; 8.5)</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>561</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="E67" s="9" t="n">
+        <v>270</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>291</v>
+      </c>
+      <c r="H67" s="10" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="I67" s="10" t="n">
+        <v>0.5187</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>1.0498</v>
+      </c>
+      <c r="K67" s="10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L67" s="10" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="M67" s="10" t="n">
+        <v>0.5187</v>
+      </c>
+      <c r="N67" s="10" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="O67" s="10" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="P67" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="7" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &lt;= 8.5)) &amp; (C &gt; 0.4941)</t>
+        </is>
+      </c>
+      <c r="C68" s="7" t="n">
+        <v>2572</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <v>0.2572</v>
+      </c>
+      <c r="E68" s="7" t="n">
+        <v>1334</v>
+      </c>
+      <c r="F68" s="8" t="n">
+        <v>0.2637</v>
+      </c>
+      <c r="G68" s="7" t="n">
+        <v>1238</v>
+      </c>
+      <c r="H68" s="8" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="I68" s="8" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="J68" s="8" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-0.0089</v>
+      </c>
+      <c r="L68" s="8" t="n">
+        <v>0.4963</v>
+      </c>
+      <c r="M68" s="8" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="N68" s="8" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="O68" s="8" t="n">
+        <v>0.3296</v>
+      </c>
+      <c r="P68" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &gt; 8.5)) &amp; (B &gt; 0.4824)</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="n">
+        <v>291</v>
+      </c>
+      <c r="D69" s="10" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="E69" s="9" t="n">
+        <v>133</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>158</v>
+      </c>
+      <c r="H69" s="10" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I69" s="10" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="J69" s="10" t="n">
+        <v>1.0989</v>
+      </c>
+      <c r="K69" s="10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L69" s="10" t="n">
+        <v>0.5084</v>
+      </c>
+      <c r="M69" s="10" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N69" s="10" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="O69" s="10" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="P69" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="7" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (A &gt; 4.5)</t>
+        </is>
+      </c>
+      <c r="C70" s="7" t="n">
+        <v>2113</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>0.2113</v>
+      </c>
+      <c r="E70" s="7" t="n">
+        <v>1055</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v>0.2085</v>
+      </c>
+      <c r="G70" s="7" t="n">
+        <v>1058</v>
+      </c>
+      <c r="H70" s="8" t="n">
+        <v>0.2141</v>
+      </c>
+      <c r="I70" s="8" t="n">
+        <v>0.5007</v>
+      </c>
+      <c r="J70" s="8" t="n">
+        <v>1.0134</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="L70" s="8" t="n">
+        <v>0.5062</v>
+      </c>
+      <c r="M70" s="8" t="n">
+        <v>0.5007</v>
+      </c>
+      <c r="N70" s="8" t="n">
+        <v>0.2141</v>
+      </c>
+      <c r="O70" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P70" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &lt;= 4.5)) &amp; (A &gt; 3.5)</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="n">
+        <v>475</v>
+      </c>
+      <c r="D71" s="10" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="E71" s="9" t="n">
+        <v>212</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>263</v>
+      </c>
+      <c r="H71" s="10" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="I71" s="10" t="n">
+        <v>0.5537</v>
+      </c>
+      <c r="J71" s="10" t="n">
+        <v>1.1206</v>
+      </c>
+      <c r="K71" s="10" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L71" s="10" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="M71" s="10" t="n">
+        <v>0.5537</v>
+      </c>
+      <c r="N71" s="10" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="O71" s="10" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="P71" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="13" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &gt; 4.5)) &amp; (A &gt; 5.5)</t>
+        </is>
+      </c>
+      <c r="C72" s="13" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D72" s="14" t="n">
+        <v>0.1671</v>
+      </c>
+      <c r="E72" s="13" t="n">
+        <v>824</v>
+      </c>
+      <c r="F72" s="14" t="n">
+        <v>0.1629</v>
+      </c>
+      <c r="G72" s="13" t="n">
+        <v>847</v>
+      </c>
+      <c r="H72" s="14" t="n">
+        <v>0.1714</v>
+      </c>
+      <c r="I72" s="14" t="n">
+        <v>0.5069</v>
+      </c>
+      <c r="J72" s="14" t="n">
+        <v>1.0259</v>
+      </c>
+      <c r="K72" s="14" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="L72" s="14" t="n">
+        <v>0.5082</v>
+      </c>
+      <c r="M72" s="14" t="n">
+        <v>0.5069</v>
+      </c>
+      <c r="N72" s="14" t="n">
+        <v>0.1714</v>
+      </c>
+      <c r="O72" s="14" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="P72" s="14" t="n">
+        <v>0.4941</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B36:L36"/>
-    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B39:P39"/>
+    <mergeCell ref="B57:P57"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I16">
+  <conditionalFormatting sqref="I5:I18">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2851,7 +3928,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K16">
+  <conditionalFormatting sqref="J5:J18">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2860,7 +3937,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I33">
+  <conditionalFormatting sqref="I24:I36">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2869,7 +3946,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K33">
+  <conditionalFormatting sqref="J24:J36">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -2878,7 +3955,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I50">
+  <conditionalFormatting sqref="I42:I54">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2887,7 +3964,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K50">
+  <conditionalFormatting sqref="J42:J54">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -2896,7 +3973,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I67">
+  <conditionalFormatting sqref="I60:I72">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -2905,7 +3982,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:K67">
+  <conditionalFormatting sqref="J60:J72">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -2924,7 +4001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:K65"/>
+  <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2975,534 +4052,810 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>坏率</t>
+          <t>坏样本率</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
+          <t>LIFT值</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>坏账改善</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>准确率</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>精确率</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>召回率</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>F1分数</t>
+        </is>
+      </c>
+      <c r="P3" s="6" t="inlineStr">
+        <is>
           <t>样本整体坏率</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>B &lt;= 0.495  &amp; 时间 &gt; 0.943</t>
+          <t>B &gt; 0.4946</t>
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>243</v>
+        <v>2999</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0347</v>
+        <v>0.4284</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>142</v>
+        <v>1466</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.0401</v>
+        <v>0.414</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>101</v>
+        <v>1533</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>0.0292</v>
+        <v>0.4432</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.4156</v>
+        <v>0.5112</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.0345</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.8411</v>
+        <v>0.0258</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>0.4748</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; 时间 &lt;= 0.943 </t>
+          <t>(B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)</t>
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>3758</v>
+        <v>243</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0.5369</v>
+        <v>0.0347</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>1933</v>
+        <v>142</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>0.5459000000000001</v>
+        <v>0.0401</v>
       </c>
       <c r="G5" s="9" t="n">
-        <v>1825</v>
+        <v>101</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>0.5276</v>
+        <v>0.0292</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>0.4856</v>
+        <v>0.4156</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>0.4941</v>
+        <v>0.8411</v>
       </c>
       <c r="K5" s="10" t="n">
-        <v>0.9828</v>
+        <v>-0.0057</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>0.4156</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; 时间 &lt;= 0.877 </t>
+          <t>((B &lt;= 0.4946) &amp; (时间 &lt;= 0.9426)) &amp; (时间 &gt; 0.9294)</t>
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>2669</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.3813</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1321</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.3731</v>
+        <v>0.0054</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>1348</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>0.3897</v>
+        <v>0.0116</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>0.5051</v>
+        <v>0.678</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>0.4941</v>
+        <v>1.372</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>1.0221</v>
+        <v>0.0032</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>0.4941</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>B &gt; 0.495 &amp; 时间 &gt; 0.877</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="n">
-        <v>330</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.0471</v>
-      </c>
-      <c r="E7" s="11" t="n">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (时间 &gt; 0.9426)) &amp; (A &gt; 1.5)</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>194</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0.9284</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>0.5036</v>
+      </c>
+      <c r="M7" s="10" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="O7" s="10" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (时间 &gt; 0.8772)</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>329</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>145</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F8" s="8" t="n">
         <v>0.0409</v>
       </c>
-      <c r="G7" s="11" t="n">
-        <v>185</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0.0535</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>1.1345</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="5" t="inlineStr">
+      <c r="G8" s="7" t="n">
+        <v>184</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>1.1318</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0.5114</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (时间 &lt;= 0.8772)) &amp; (时间 &gt; 0.8415)</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>115</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>0.8095</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>-0.0032</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>0.5026</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O9" s="10" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="P9" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (时间 &gt; 0.8772)) &amp; (时间 &gt; 0.8942)</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>283</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>134</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>0.0378</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>149</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>0.5265</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>1.0655</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>0.5265</v>
+      </c>
+      <c r="N10" s="14" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="O10" s="14" t="n">
+        <v>0.0796</v>
+      </c>
+      <c r="P10" s="14" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>组合策略</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>命中数</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>命中率</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>好样本数</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>好样本占比</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>坏样本数</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>坏样本占比</t>
         </is>
       </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>坏率</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>坏样本率</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>LIFT值</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>坏账改善</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>准确率</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>精确率</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>召回率</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>F1分数</t>
+        </is>
+      </c>
+      <c r="P53" s="6" t="inlineStr">
         <is>
           <t>样本整体坏率</t>
         </is>
       </c>
-      <c r="K32" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &lt;= 0.495  &amp; A &lt;= 8.5 </t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>3605</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>1889</v>
-      </c>
-      <c r="F33" s="8" t="n">
-        <v>0.5335</v>
-      </c>
-      <c r="G33" s="7" t="n">
-        <v>1716</v>
-      </c>
-      <c r="H33" s="8" t="n">
-        <v>0.4961</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="J33" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>0.9633</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>B &gt; 0.495 &amp; A &gt; 4.5</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="n">
+    </row>
+    <row r="54">
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>B &gt; 0.4946</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>1466</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>1533</v>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>1.0345</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="L54" s="8" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="M54" s="8" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="N54" s="8" t="n">
+        <v>0.4432</v>
+      </c>
+      <c r="O54" s="8" t="n">
+        <v>0.4748</v>
+      </c>
+      <c r="P54" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>(B &lt;= 0.4946) &amp; (A &gt; 8.5)</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>396</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="E55" s="9" t="n">
+        <v>186</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="H55" s="10" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="I55" s="10" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="J55" s="10" t="n">
+        <v>1.0732</v>
+      </c>
+      <c r="K55" s="10" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="L55" s="10" t="n">
+        <v>0.5093</v>
+      </c>
+      <c r="M55" s="10" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="N55" s="10" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="O55" s="10" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="P55" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &lt;= 8.5)) &amp; (C &gt; 0.4941)</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>0.2589</v>
+      </c>
+      <c r="E56" s="7" t="n">
+        <v>927</v>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v>0.2618</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <v>885</v>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="L56" s="8" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="N56" s="8" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="O56" s="8" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="P56" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="9" t="inlineStr">
+        <is>
+          <t>((B &lt;= 0.4946) &amp; (A &gt; 8.5)) &amp; (B &gt; 0.4824)</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="D57" s="10" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>114</v>
+      </c>
+      <c r="H57" s="10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I57" s="10" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="J57" s="10" t="n">
+        <v>1.1145</v>
+      </c>
+      <c r="K57" s="10" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="L57" s="10" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="M57" s="10" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="N57" s="10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O57" s="10" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="P57" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="7" t="inlineStr">
+        <is>
+          <t>(B &gt; 0.4946) &amp; (A &gt; 4.5)</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="n">
         <v>1496</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D58" s="8" t="n">
         <v>0.2137</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E58" s="7" t="n">
         <v>749</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F58" s="8" t="n">
         <v>0.2115</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G58" s="7" t="n">
         <v>747</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H58" s="8" t="n">
         <v>0.216</v>
       </c>
-      <c r="I34" s="10" t="n">
+      <c r="I58" s="8" t="n">
         <v>0.4993</v>
       </c>
-      <c r="J34" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K34" s="10" t="n">
+      <c r="J58" s="8" t="n">
         <v>1.0105</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B &gt; 0.495 &amp; A &lt;= 4.5 </t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>1503</v>
-      </c>
-      <c r="D35" s="8" t="n">
-        <v>0.2147</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>717</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>0.2025</v>
-      </c>
-      <c r="G35" s="7" t="n">
-        <v>786</v>
-      </c>
-      <c r="H35" s="8" t="n">
-        <v>0.2272</v>
-      </c>
-      <c r="I35" s="8" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="J35" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>1.0583</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="inlineStr">
-        <is>
-          <t>B &lt;= 0.495  &amp; A &gt; 8.5</t>
-        </is>
-      </c>
-      <c r="C36" s="11" t="n">
-        <v>396</v>
-      </c>
-      <c r="D36" s="12" t="n">
-        <v>0.0566</v>
-      </c>
-      <c r="E36" s="11" t="n">
-        <v>186</v>
-      </c>
-      <c r="F36" s="12" t="n">
-        <v>0.0525</v>
-      </c>
-      <c r="G36" s="11" t="n">
-        <v>210</v>
-      </c>
-      <c r="H36" s="12" t="n">
-        <v>0.0607</v>
-      </c>
-      <c r="I36" s="12" t="n">
-        <v>0.5303</v>
-      </c>
-      <c r="J36" s="12" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K36" s="12" t="n">
-        <v>1.0732</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="5" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>命中数</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>命中率</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>好样本数</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>好样本占比</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>坏样本数</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>坏样本占比</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>坏率</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>样本整体坏率</t>
-        </is>
-      </c>
-      <c r="K61" s="6" t="inlineStr">
-        <is>
-          <t>LIFT值</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;= 8.5  &amp; A &lt;= 3.5 </t>
-        </is>
-      </c>
-      <c r="C62" s="7" t="n">
-        <v>2772</v>
-      </c>
-      <c r="D62" s="8" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="E62" s="7" t="n">
-        <v>1432</v>
-      </c>
-      <c r="F62" s="8" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="G62" s="7" t="n">
-        <v>1340</v>
-      </c>
-      <c r="H62" s="8" t="n">
-        <v>0.3874</v>
-      </c>
-      <c r="I62" s="8" t="n">
-        <v>0.4834</v>
-      </c>
-      <c r="J62" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>0.9782999999999999</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="9" t="inlineStr">
-        <is>
-          <t>A &lt;= 8.5  &amp; A &gt; 3.5</t>
-        </is>
-      </c>
-      <c r="C63" s="9" t="n">
-        <v>3526</v>
-      </c>
-      <c r="D63" s="10" t="n">
-        <v>0.5037</v>
-      </c>
-      <c r="E63" s="9" t="n">
-        <v>1775</v>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>0.5013</v>
-      </c>
-      <c r="G63" s="9" t="n">
-        <v>1751</v>
-      </c>
-      <c r="H63" s="10" t="n">
-        <v>0.5062</v>
-      </c>
-      <c r="I63" s="10" t="n">
-        <v>0.4966</v>
-      </c>
-      <c r="J63" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K63" s="10" t="n">
-        <v>1.005</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &gt; 8.5 &amp; C &lt;= 0.494 </t>
-        </is>
-      </c>
-      <c r="C64" s="7" t="n">
-        <v>358</v>
-      </c>
-      <c r="D64" s="8" t="n">
-        <v>0.0511</v>
-      </c>
-      <c r="E64" s="7" t="n">
-        <v>174</v>
-      </c>
-      <c r="F64" s="8" t="n">
-        <v>0.0491</v>
-      </c>
-      <c r="G64" s="7" t="n">
-        <v>184</v>
-      </c>
-      <c r="H64" s="8" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="I64" s="8" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="J64" s="8" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>1.0401</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="11" t="inlineStr">
-        <is>
-          <t>A &gt; 8.5 &amp; C &gt; 0.494</t>
-        </is>
-      </c>
-      <c r="C65" s="11" t="n">
-        <v>344</v>
-      </c>
-      <c r="D65" s="12" t="n">
-        <v>0.0491</v>
-      </c>
-      <c r="E65" s="11" t="n">
-        <v>160</v>
-      </c>
-      <c r="F65" s="12" t="n">
-        <v>0.0452</v>
-      </c>
-      <c r="G65" s="11" t="n">
-        <v>184</v>
-      </c>
-      <c r="H65" s="12" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="I65" s="12" t="n">
-        <v>0.5349</v>
-      </c>
-      <c r="J65" s="12" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="K65" s="12" t="n">
-        <v>1.0824</v>
+      <c r="K58" s="8" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="L58" s="8" t="n">
+        <v>0.5056</v>
+      </c>
+      <c r="M58" s="8" t="n">
+        <v>0.4993</v>
+      </c>
+      <c r="N58" s="8" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="O58" s="8" t="n">
+        <v>0.3015</v>
+      </c>
+      <c r="P58" s="8" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &lt;= 4.5)) &amp; (A &gt; 3.5)</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>343</v>
+      </c>
+      <c r="D59" s="10" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E59" s="9" t="n">
+        <v>149</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>194</v>
+      </c>
+      <c r="H59" s="10" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="I59" s="10" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="J59" s="10" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="K59" s="10" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="L59" s="10" t="n">
+        <v>0.5123</v>
+      </c>
+      <c r="M59" s="10" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="N59" s="10" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="O59" s="10" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="P59" s="10" t="n">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="13" t="inlineStr">
+        <is>
+          <t>((B &gt; 0.4946) &amp; (A &gt; 4.5)) &amp; (A &gt; 5.5)</t>
+        </is>
+      </c>
+      <c r="C60" s="13" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D60" s="14" t="n">
+        <v>0.1701</v>
+      </c>
+      <c r="E60" s="13" t="n">
+        <v>581</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <v>0.1641</v>
+      </c>
+      <c r="G60" s="13" t="n">
+        <v>610</v>
+      </c>
+      <c r="H60" s="14" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="I60" s="14" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="J60" s="14" t="n">
+        <v>1.0365</v>
+      </c>
+      <c r="K60" s="14" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="L60" s="14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M60" s="14" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="N60" s="14" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="O60" s="14" t="n">
+        <v>0.2624</v>
+      </c>
+      <c r="P60" s="14" t="n">
+        <v>0.4941</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I7">
+  <conditionalFormatting sqref="I4:I10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3511,7 +4864,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K7">
+  <conditionalFormatting sqref="J4:J10">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3520,7 +4873,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I36">
+  <conditionalFormatting sqref="I54:I60">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -3529,26 +4882,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K36">
+  <conditionalFormatting sqref="J54:J60">
     <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="002639E9"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:I65">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="002639E9"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K65">
-    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
